--- a/Team-Data/2008-09/12-21-2008-09.xlsx
+++ b/Team-Data/2008-09/12-21-2008-09.xlsx
@@ -811,13 +811,13 @@
         <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -841,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
         <v>26</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
         <v>25</v>
@@ -862,19 +862,19 @@
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
         <v>12</v>
       </c>
       <c r="AW2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.923</v>
+        <v>0.926</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J3" t="n">
         <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
       <c r="L3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M3" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.369</v>
+        <v>0.364</v>
       </c>
       <c r="O3" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.761</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T3" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="V3" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>24.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -1023,25 +1023,25 @@
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
         <v>1</v>
       </c>
       <c r="AP3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>17</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
@@ -1053,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1175,7 +1175,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1211,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>27</v>
@@ -1250,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1279,106 +1279,106 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.462</v>
+        <v>0.481</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>85.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.802</v>
+        <v>0.799</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6</v>
       </c>
-      <c r="Z5" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>15</v>
-      </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1387,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>6</v>
@@ -1408,7 +1408,7 @@
         <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
@@ -1420,19 +1420,19 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>25</v>
       </c>
       <c r="BA5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.88</v>
+        <v>0.846</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.48</v>
+        <v>0.478</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M6" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.336</v>
+        <v>0.332</v>
       </c>
       <c r="O6" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.782</v>
+        <v>0.779</v>
       </c>
       <c r="R6" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.1</v>
+        <v>102.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1554,16 +1554,16 @@
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="n">
         <v>8</v>
@@ -1575,25 +1575,25 @@
         <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
         <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1605,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
@@ -1778,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>14</v>
@@ -1909,16 +1909,16 @@
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1927,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>16</v>
@@ -1948,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>19</v>
@@ -1966,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
         <v>23</v>
@@ -1975,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
         <v>8</v>
@@ -2091,7 +2091,7 @@
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -2106,7 +2106,7 @@
         <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
@@ -2115,7 +2115,7 @@
         <v>25</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>17</v>
@@ -2124,7 +2124,7 @@
         <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>22</v>
@@ -2148,13 +2148,13 @@
         <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>21</v>
@@ -2267,7 +2267,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2279,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
@@ -2315,10 +2315,10 @@
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2333,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA10" t="n">
         <v>2</v>
@@ -2467,7 +2467,7 @@
         <v>27</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>24</v>
@@ -2485,7 +2485,7 @@
         <v>7</v>
       </c>
       <c r="AP11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2497,10 +2497,10 @@
         <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV11" t="n">
         <v>10</v>
@@ -2518,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>15</v>
@@ -2655,7 +2655,7 @@
         <v>18</v>
       </c>
       <c r="AL12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM12" t="n">
         <v>10</v>
@@ -2676,7 +2676,7 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -2694,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
@@ -2706,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2828,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.471</v>
@@ -2944,31 +2944,31 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.367</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="P14" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R14" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="T14" t="n">
-        <v>45.5</v>
+        <v>45.7</v>
       </c>
       <c r="U14" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
         <v>14.3</v>
@@ -2977,28 +2977,28 @@
         <v>9.4</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.8</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -3013,19 +3013,19 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -3034,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -3058,13 +3058,13 @@
         <v>12</v>
       </c>
       <c r="AY14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA14" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3198,7 +3198,7 @@
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>26</v>
@@ -3210,13 +3210,13 @@
         <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
@@ -3359,7 +3359,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3389,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
@@ -3413,7 +3413,7 @@
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW16" t="n">
         <v>5</v>
@@ -3428,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>19</v>
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.464</v>
+        <v>0.448</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3481,43 +3481,43 @@
         <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M17" t="n">
         <v>14.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R17" t="n">
         <v>13</v>
       </c>
       <c r="S17" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>44.2</v>
+        <v>43.8</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W17" t="n">
         <v>6.9</v>
@@ -3529,31 +3529,31 @@
         <v>5.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG17" t="n">
         <v>18</v>
       </c>
-      <c r="AG17" t="n">
-        <v>17</v>
-      </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>17</v>
@@ -3562,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
         <v>25</v>
@@ -3571,7 +3571,7 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
@@ -3586,25 +3586,25 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3616,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="BC17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3756,7 +3756,7 @@
         <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
         <v>17</v>
@@ -3792,7 +3792,7 @@
         <v>21</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
         <v>26</v>
@@ -3905,7 +3905,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3926,7 +3926,7 @@
         <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>6</v>
@@ -3935,7 +3935,7 @@
         <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3965,7 +3965,7 @@
         <v>26</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>22</v>
@@ -4108,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4153,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA20" t="n">
         <v>9</v>
@@ -4162,7 +4162,7 @@
         <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4269,7 +4269,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4284,7 +4284,7 @@
         <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ21" t="n">
         <v>2</v>
@@ -4314,10 +4314,10 @@
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
         <v>4</v>
@@ -4332,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
         <v>5</v>
@@ -4481,10 +4481,10 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
@@ -4493,7 +4493,7 @@
         <v>26</v>
       </c>
       <c r="AR22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
         <v>19</v>
@@ -4663,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>11</v>
@@ -4702,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB23" t="n">
         <v>10</v>
@@ -4818,7 +4818,7 @@
         <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>18</v>
@@ -4836,7 +4836,7 @@
         <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4848,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT24" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
         <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB24" t="n">
         <v>28</v>
@@ -5012,7 +5012,7 @@
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
         <v>27</v>
@@ -5042,13 +5042,13 @@
         <v>28</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT25" t="n">
         <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -5063,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5072,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5101,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" t="n">
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.654</v>
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>80.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M26" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.781</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
         <v>13.6</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5161,46 +5161,46 @@
         <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5212,10 +5212,10 @@
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
         <v>11</v>
@@ -5227,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU26" t="n">
         <v>11</v>
@@ -5245,16 +5245,16 @@
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB26" t="n">
         <v>14</v>
       </c>
-      <c r="BA26" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>11</v>
-      </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5361,7 +5361,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5430,7 +5430,7 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
@@ -5543,13 +5543,13 @@
         <v>2.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
@@ -5558,13 +5558,13 @@
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ28" t="n">
         <v>19</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>3</v>
@@ -5597,7 +5597,7 @@
         <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5737,7 +5737,7 @@
         <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5758,7 +5758,7 @@
         <v>8</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>25</v>
@@ -5788,13 +5788,13 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>2</v>
       </c>
       <c r="BA29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>24</v>
@@ -5946,7 +5946,7 @@
         <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -6104,7 +6104,7 @@
         <v>17</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6122,7 +6122,7 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP31" t="n">
         <v>16</v>
@@ -6131,7 +6131,7 @@
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS31" t="n">
         <v>26</v>
@@ -6158,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>

--- a/Team-Data/2008-09/12-21-2008-09.xlsx
+++ b/Team-Data/2008-09/12-21-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,55 +733,55 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.63</v>
+        <v>0.615</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="J2" t="n">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L2" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O2" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P2" t="n">
         <v>23.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R2" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S2" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T2" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U2" t="n">
         <v>21.1</v>
@@ -726,34 +793,34 @@
         <v>6.9</v>
       </c>
       <c r="X2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.3</v>
+        <v>96.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF2" t="n">
         <v>7</v>
       </c>
-      <c r="AE2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>8</v>
-      </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>26</v>
@@ -774,40 +841,40 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
         <v>26</v>
       </c>
       <c r="AP2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR2" t="n">
         <v>18</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>17</v>
-      </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AT2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -816,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -863,70 +930,70 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>36.5</v>
       </c>
       <c r="J3" t="n">
         <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.488</v>
+        <v>0.48</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.375</v>
+        <v>0.364</v>
       </c>
       <c r="O3" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="P3" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.4</v>
       </c>
       <c r="T3" t="n">
-        <v>43.7</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>21.7</v>
       </c>
       <c r="V3" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.5</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.9</v>
+        <v>10.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -956,40 +1023,40 @@
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -998,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="BB3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1129,13 +1196,13 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
       </c>
       <c r="AM4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
         <v>16</v>
@@ -1144,13 +1211,13 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
         <v>30</v>
@@ -1168,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -1212,106 +1279,106 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.462</v>
+        <v>0.481</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>85.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.802</v>
+        <v>0.799</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6</v>
       </c>
-      <c r="Z5" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18</v>
-      </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1323,10 +1390,10 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>6</v>
@@ -1338,10 +1405,10 @@
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
@@ -1353,19 +1420,19 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>25</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -1397,61 +1464,61 @@
         <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.885</v>
+        <v>0.846</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.6</v>
+        <v>38.1</v>
       </c>
       <c r="J6" t="n">
-        <v>79.90000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.483</v>
+        <v>0.478</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.342</v>
+        <v>0.332</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R6" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>42.2</v>
+        <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X6" t="n">
         <v>6</v>
@@ -1460,16 +1527,16 @@
         <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.1</v>
+        <v>102.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="AD6" t="n">
         <v>18</v>
@@ -1487,46 +1554,46 @@
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
         <v>15</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1538,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.577</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
@@ -1594,34 +1661,34 @@
         <v>37.8</v>
       </c>
       <c r="J7" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K7" t="n">
         <v>0.45</v>
       </c>
       <c r="L7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.33</v>
+        <v>0.339</v>
       </c>
       <c r="O7" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P7" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="R7" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="S7" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="T7" t="n">
         <v>45.6</v>
@@ -1633,37 +1700,37 @@
         <v>13.6</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X7" t="n">
         <v>5</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
         <v>4</v>
@@ -1678,55 +1745,55 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>7</v>
       </c>
       <c r="AR7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1903,22 @@
         <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1869,7 +1936,7 @@
         <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP8" t="n">
         <v>2</v>
@@ -1878,13 +1945,13 @@
         <v>18</v>
       </c>
       <c r="AR8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
         <v>11</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -1899,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
         <v>23</v>
@@ -1908,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -1940,49 +2007,49 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
         <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.583</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J9" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="K9" t="n">
         <v>0.461</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M9" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="O9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="P9" t="n">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R9" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S9" t="n">
         <v>29.5</v>
@@ -1994,40 +2061,40 @@
         <v>21.4</v>
       </c>
       <c r="V9" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>95.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>10</v>
@@ -2039,28 +2106,28 @@
         <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
       </c>
       <c r="AR9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS9" t="n">
         <v>21</v>
@@ -2069,31 +2136,31 @@
         <v>25</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>5</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
         <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,19 +2288,19 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="n">
         <v>1</v>
@@ -2245,13 +2312,13 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT10" t="n">
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2266,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2394,13 +2461,13 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>24</v>
@@ -2418,22 +2485,22 @@
         <v>7</v>
       </c>
       <c r="AP11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV11" t="n">
         <v>10</v>
@@ -2448,10 +2515,10 @@
         <v>27</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2585,19 +2652,19 @@
         <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM12" t="n">
         <v>10</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP12" t="n">
         <v>28</v>
@@ -2609,25 +2676,25 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
         <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
@@ -2636,10 +2703,10 @@
         <v>13</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2761,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2782,7 +2849,7 @@
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ13" t="n">
         <v>28</v>
@@ -2791,10 +2858,10 @@
         <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
         <v>19</v>
@@ -2815,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.471</v>
@@ -2877,31 +2944,31 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.367</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="P14" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R14" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="T14" t="n">
-        <v>45.5</v>
+        <v>45.7</v>
       </c>
       <c r="U14" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
         <v>14.3</v>
@@ -2910,28 +2977,28 @@
         <v>9.4</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.8</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -2946,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
@@ -2955,10 +3022,10 @@
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2967,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2988,16 +3055,16 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA14" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3198,7 @@
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>26</v>
@@ -3143,19 +3210,19 @@
         <v>23</v>
       </c>
       <c r="AO15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP15" t="n">
         <v>13</v>
       </c>
-      <c r="AP15" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT15" t="n">
         <v>30</v>
@@ -3173,7 +3240,7 @@
         <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3362,7 @@
         <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -3307,22 +3374,22 @@
         <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>10</v>
       </c>
       <c r="AM16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
@@ -3337,7 +3404,7 @@
         <v>16</v>
       </c>
       <c r="AS16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT16" t="n">
         <v>24</v>
@@ -3346,7 +3413,7 @@
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW16" t="n">
         <v>5</v>
@@ -3361,13 +3428,13 @@
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.464</v>
+        <v>0.448</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3414,43 +3481,43 @@
         <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M17" t="n">
         <v>14.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R17" t="n">
         <v>13</v>
       </c>
       <c r="S17" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>44.2</v>
+        <v>43.8</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W17" t="n">
         <v>6.9</v>
@@ -3462,40 +3529,40 @@
         <v>5.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG17" t="n">
         <v>18</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AH17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI17" t="n">
         <v>17</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
         <v>25</v>
@@ -3504,7 +3571,7 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
@@ -3519,25 +3586,25 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3549,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="BC17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI18" t="n">
         <v>23</v>
@@ -3725,7 +3792,7 @@
         <v>21</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3926,7 @@
         <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>6</v>
@@ -3880,7 +3947,7 @@
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS19" t="n">
         <v>20</v>
@@ -3901,7 +3968,7 @@
         <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4090,7 @@
         <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4053,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4086,16 +4153,16 @@
         <v>4</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA20" t="n">
         <v>9</v>
       </c>
       <c r="BB20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -4124,100 +4191,100 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="n">
         <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.407</v>
+        <v>0.423</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J21" t="n">
-        <v>86.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.439</v>
       </c>
       <c r="L21" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="M21" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O21" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P21" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.804</v>
+        <v>0.805</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="T21" t="n">
-        <v>42.6</v>
+        <v>43.3</v>
       </c>
       <c r="U21" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V21" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W21" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.5</v>
+        <v>-2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ21" t="n">
         <v>2</v>
@@ -4244,13 +4311,13 @@
         <v>4</v>
       </c>
       <c r="AR21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT21" t="n">
         <v>7</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>9</v>
       </c>
       <c r="AU21" t="n">
         <v>4</v>
@@ -4265,10 +4332,10 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.107</v>
+        <v>0.111</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
@@ -4324,67 +4391,67 @@
         <v>35.6</v>
       </c>
       <c r="J22" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.435</v>
       </c>
       <c r="L22" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M22" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.369</v>
+        <v>0.364</v>
       </c>
       <c r="O22" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P22" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q22" t="n">
         <v>0.747</v>
       </c>
       <c r="R22" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S22" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T22" t="n">
         <v>41.6</v>
       </c>
       <c r="U22" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V22" t="n">
         <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="AC22" t="n">
         <v>-9.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4414,16 +4481,16 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR22" t="n">
         <v>13</v>
@@ -4441,19 +4508,19 @@
         <v>26</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX22" t="n">
         <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ22" t="n">
         <v>17</v>
       </c>
       <c r="BA22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>18</v>
@@ -4760,7 +4827,7 @@
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>21</v>
@@ -4769,7 +4836,7 @@
         <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4784,10 +4851,10 @@
         <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR24" t="n">
         <v>1</v>
@@ -4805,7 +4872,7 @@
         <v>23</v>
       </c>
       <c r="AW24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX24" t="n">
         <v>14</v>
@@ -4814,10 +4881,10 @@
         <v>19</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB24" t="n">
         <v>28</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -4930,19 +4997,19 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>5</v>
@@ -4969,7 +5036,7 @@
         <v>8</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
         <v>28</v>
@@ -4981,10 +5048,10 @@
         <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -5005,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" t="n">
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.654</v>
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>80.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M26" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.781</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
         <v>13.6</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5094,46 +5161,46 @@
         <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ26" t="n">
         <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5145,13 +5212,13 @@
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
         <v>2</v>
@@ -5160,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU26" t="n">
         <v>11</v>
@@ -5178,16 +5245,16 @@
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB26" t="n">
         <v>14</v>
       </c>
-      <c r="BA26" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>11</v>
-      </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
@@ -5309,7 +5376,7 @@
         <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
@@ -5327,7 +5394,7 @@
         <v>27</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
         <v>24</v>
@@ -5336,7 +5403,7 @@
         <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
         <v>23</v>
@@ -5363,7 +5430,7 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -5479,25 +5546,25 @@
         <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ28" t="n">
         <v>19</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>3</v>
@@ -5515,22 +5582,22 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5539,7 +5606,7 @@
         <v>27</v>
       </c>
       <c r="AY28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5548,7 +5615,7 @@
         <v>29</v>
       </c>
       <c r="BB28" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BC28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5673,7 +5740,7 @@
         <v>12</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ29" t="n">
         <v>20</v>
@@ -5688,10 +5755,10 @@
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>25</v>
@@ -5703,13 +5770,13 @@
         <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
         <v>6</v>
@@ -5721,13 +5788,13 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -5912,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
@@ -5944,91 +6011,91 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>0.16</v>
+        <v>0.167</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="J31" t="n">
-        <v>81.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L31" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M31" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.322</v>
+        <v>0.319</v>
       </c>
       <c r="O31" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P31" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="R31" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S31" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T31" t="n">
         <v>40</v>
       </c>
       <c r="U31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V31" t="n">
         <v>13.8</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y31" t="n">
         <v>4.7</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="n">
-        <v>96.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7</v>
+        <v>-6.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6037,13 +6104,13 @@
         <v>17</v>
       </c>
       <c r="AI31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
         <v>20</v>
@@ -6055,46 +6122,46 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
         <v>14</v>
       </c>
       <c r="AS31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>17</v>
       </c>
       <c r="AV31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AX31" t="n">
         <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-21-2008-09</t>
+          <t>2008-12-21</t>
         </is>
       </c>
     </row>
